--- a/results/Results_forward.xlsx
+++ b/results/Results_forward.xlsx
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9819.065125788764</v>
+        <v>9815.949670760207</v>
       </c>
       <c r="D2" t="n">
-        <v>11083.78829283576</v>
+        <v>11080.90131642112</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9820.623922201579</v>
+        <v>9826.007148459063</v>
       </c>
       <c r="D3" t="n">
-        <v>11084.53635405611</v>
+        <v>11088.27459333561</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9832.982717481578</v>
+        <v>9824.061514558211</v>
       </c>
       <c r="D4" t="n">
-        <v>11097.46523747222</v>
+        <v>11086.79065455147</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9823.925430514464</v>
+        <v>9821.019556162446</v>
       </c>
       <c r="D5" t="n">
-        <v>11091.6259477923</v>
+        <v>11085.24026376805</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9824.392653014555</v>
+        <v>9819.171638125825</v>
       </c>
       <c r="D6" t="n">
-        <v>11085.79269048506</v>
+        <v>11085.39793521137</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9821.661916531213</v>
+        <v>9825.431397126595</v>
       </c>
       <c r="D7" t="n">
-        <v>11091.74930631545</v>
+        <v>11091.3507409345</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9823.972858805546</v>
+        <v>9818.655651756611</v>
       </c>
       <c r="D8" t="n">
-        <v>11090.64936429701</v>
+        <v>11084.70910010637</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9825.76715702133</v>
+        <v>9821.626720457316</v>
       </c>
       <c r="D9" t="n">
-        <v>11096.20404734877</v>
+        <v>11086.23163825032</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9827.080254455816</v>
+        <v>9823.755602750665</v>
       </c>
       <c r="D10" t="n">
-        <v>11097.74064382622</v>
+        <v>11088.18033708643</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9825.008811784848</v>
+        <v>9837.442405142605</v>
       </c>
       <c r="D11" t="n">
-        <v>11088.92291049676</v>
+        <v>11090.93397972253</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9822.448398124428</v>
+        <v>9819.942370538216</v>
       </c>
       <c r="D12" t="n">
-        <v>11092.48381459005</v>
+        <v>11093.69777182456</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9822.687501754064</v>
+        <v>9831.078282645598</v>
       </c>
       <c r="D13" t="n">
-        <v>11093.28039822018</v>
+        <v>11090.60443266814</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9827.883034538316</v>
+        <v>9821.558412649962</v>
       </c>
       <c r="D14" t="n">
-        <v>11089.08144752355</v>
+        <v>11086.9784376552</v>
       </c>
     </row>
     <row r="15">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9840.898642297512</v>
+        <v>9825.004388552461</v>
       </c>
       <c r="D15" t="n">
-        <v>11113.29531163296</v>
+        <v>11088.92345206815</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9859.610282601259</v>
+        <v>9857.385172610882</v>
       </c>
       <c r="D16" t="n">
-        <v>11101.32244566785</v>
+        <v>11100.35375619341</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9834.643444849436</v>
+        <v>9837.962805443494</v>
       </c>
       <c r="D17" t="n">
-        <v>11097.87994115356</v>
+        <v>11103.57271551856</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9827.629761990605</v>
+        <v>9826.299665939296</v>
       </c>
       <c r="D18" t="n">
-        <v>11094.73496690696</v>
+        <v>11093.07073762144</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9826.761027308601</v>
+        <v>9829.125671183921</v>
       </c>
       <c r="D19" t="n">
-        <v>11095.77168299324</v>
+        <v>11090.53314665118</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>9834.282513635379</v>
+        <v>9853.849580392331</v>
       </c>
       <c r="D20" t="n">
-        <v>11106.81594178096</v>
+        <v>11125.53790092218</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>9837.726227678608</v>
+        <v>9844.532197120481</v>
       </c>
       <c r="D21" t="n">
-        <v>11086.78275336244</v>
+        <v>11095.17896617037</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>9822.686999300273</v>
+        <v>9836.316324579329</v>
       </c>
       <c r="D22" t="n">
-        <v>11087.60295518953</v>
+        <v>11101.34295493952</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9829.038828279285</v>
+        <v>9822.107696063355</v>
       </c>
       <c r="D23" t="n">
-        <v>11099.29973222076</v>
+        <v>11094.96211378789</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>9821.519610325837</v>
+        <v>9862.173181859631</v>
       </c>
       <c r="D24" t="n">
-        <v>11092.09004016818</v>
+        <v>11128.39182610468</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9827.849974578359</v>
+        <v>9825.184874868022</v>
       </c>
       <c r="D25" t="n">
-        <v>11094.06456443279</v>
+        <v>11087.08251758934</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9868.094082441272</v>
+        <v>9863.893784801983</v>
       </c>
       <c r="D26" t="n">
-        <v>11122.74870255512</v>
+        <v>11111.86314032072</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9821.392113317001</v>
+        <v>9898.945484241593</v>
       </c>
       <c r="D27" t="n">
-        <v>11081.03639146656</v>
+        <v>11164.21496215561</v>
       </c>
     </row>
   </sheetData>

--- a/results/Results_forward.xlsx
+++ b/results/Results_forward.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Number of Components</t>
+  </si>
+  <si>
+    <t>Train Error</t>
+  </si>
+  <si>
+    <t>Test Error</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,401 +379,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Number of Components</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Train Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Test Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>9815.949670760207</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11080.90131642112</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C2">
+        <v>5135.544014335202</v>
+      </c>
+      <c r="D2">
+        <v>5993.224083312522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>9826.007148459063</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11088.27459333561</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C3">
+        <v>5264.777379615689</v>
+      </c>
+      <c r="D3">
+        <v>6139.452223583671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>9824.061514558211</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11086.79065455147</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>5262.159551384203</v>
+      </c>
+      <c r="D4">
+        <v>6122.28840583619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>9821.019556162446</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11085.24026376805</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C5">
+        <v>5265.920383098902</v>
+      </c>
+      <c r="D5">
+        <v>6146.944189474758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>9819.171638125825</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11085.39793521137</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>5266.483006397534</v>
+      </c>
+      <c r="D6">
+        <v>6144.360905692536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>9825.431397126595</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11091.3507409345</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>5266.703586141723</v>
+      </c>
+      <c r="D7">
+        <v>6147.459500574415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>9818.655651756611</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11084.70910010637</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C8">
+        <v>5261.097624468515</v>
+      </c>
+      <c r="D8">
+        <v>6142.033180419558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>9821.626720457316</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11086.23163825032</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C9">
+        <v>5265.641245852041</v>
+      </c>
+      <c r="D9">
+        <v>6149.890994041887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
-        <v>9823.755602750665</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11088.18033708643</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="C10">
+        <v>5264.820708107936</v>
+      </c>
+      <c r="D10">
+        <v>6144.735997331697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
-        <v>9837.442405142605</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11090.93397972253</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="C11">
+        <v>5264.339076066753</v>
+      </c>
+      <c r="D11">
+        <v>6148.313097228468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="n">
-        <v>9819.942370538216</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11093.69777182456</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="C12">
+        <v>5261.135370165901</v>
+      </c>
+      <c r="D12">
+        <v>6158.194649061879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="n">
-        <v>9831.078282645598</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11090.60443266814</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="C13">
+        <v>5264.731062312701</v>
+      </c>
+      <c r="D13">
+        <v>6146.888106929864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="n">
-        <v>9821.558412649962</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11086.9784376552</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="C14">
+        <v>5259.530335709314</v>
+      </c>
+      <c r="D14">
+        <v>6148.213551821847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="n">
-        <v>9825.004388552461</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11088.92345206815</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="C15">
+        <v>5256.029662049834</v>
+      </c>
+      <c r="D15">
+        <v>6142.247556786889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" t="n">
-        <v>9857.385172610882</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11100.35375619341</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="C16">
+        <v>5266.512411027044</v>
+      </c>
+      <c r="D16">
+        <v>6146.932597320292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="n">
-        <v>9837.962805443494</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11103.57271551856</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="C17">
+        <v>5261.416964928726</v>
+      </c>
+      <c r="D17">
+        <v>6154.709370373269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" t="n">
-        <v>9826.299665939296</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11093.07073762144</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="C18">
+        <v>5254.865780805468</v>
+      </c>
+      <c r="D18">
+        <v>6152.401729268659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" t="n">
-        <v>9829.125671183921</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11090.53314665118</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="C19">
+        <v>5260.122273084272</v>
+      </c>
+      <c r="D19">
+        <v>6166.768329910858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" t="n">
-        <v>9853.849580392331</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11125.53790092218</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="C20">
+        <v>5243.542685964873</v>
+      </c>
+      <c r="D20">
+        <v>6182.021671128704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="n">
-        <v>9844.532197120481</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11095.17896617037</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="C21">
+        <v>5260.690192600625</v>
+      </c>
+      <c r="D21">
+        <v>6145.983305883684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" t="n">
-        <v>9836.316324579329</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11101.34295493952</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="C22">
+        <v>5260.942698953889</v>
+      </c>
+      <c r="D22">
+        <v>6152.177352829168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" t="n">
-        <v>9822.107696063355</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11094.96211378789</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="C23">
+        <v>5254.434844884099</v>
+      </c>
+      <c r="D23">
+        <v>6180.132852056932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" t="n">
-        <v>9862.173181859631</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11128.39182610468</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="C24">
+        <v>5250.468727298005</v>
+      </c>
+      <c r="D24">
+        <v>6186.188938961795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="n">
-        <v>9825.184874868022</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11087.08251758934</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="C25">
+        <v>5262.927196719225</v>
+      </c>
+      <c r="D25">
+        <v>6142.387691900995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" t="n">
-        <v>9863.893784801983</v>
-      </c>
-      <c r="D26" t="n">
-        <v>11111.86314032072</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="C26">
+        <v>5264.511234769288</v>
+      </c>
+      <c r="D26">
+        <v>6151.670132576435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" t="n">
-        <v>9898.945484241593</v>
-      </c>
-      <c r="D27" t="n">
-        <v>11164.21496215561</v>
+      <c r="C27">
+        <v>5248.646259125033</v>
+      </c>
+      <c r="D27">
+        <v>6158.015932966146</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>